--- a/results/mp/logistic/corona/confidence/42/masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.2/avg_0.003_scores.xlsx
@@ -40,46 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>emergency</t>
@@ -91,181 +88,184 @@
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7945205479452054</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C3">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -842,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7837837837837838</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,16 +863,16 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -910,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.76</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6101694915254238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5503875968992248</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5502645502645502</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="D13">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5294117647058824</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5033557046979866</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.475</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3916666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7605633802816901</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,7 +1492,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3818181818181818</v>
+        <v>0.375</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -1510,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <v>0.75</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,38 +1542,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>35</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20">
-        <v>0.75</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>36</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3111111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7272727272727273</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2597402597402597</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>56</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.257936507936508</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1710,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1635388739946381</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.6984126984126984</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1792,37 +1792,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07666666666666666</v>
+        <v>0.01559207753898019</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>277</v>
+        <v>2336</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.6588235294117647</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,37 +1842,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02239448751076658</v>
+        <v>0.01548886737657309</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1135</v>
+        <v>3051</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.65</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,37 +1892,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01583198707592892</v>
+        <v>0.01217228464419476</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F27">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3046</v>
+        <v>2110</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.6285714285714286</v>
+        <v>0.64</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1942,37 +1942,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01518346689160692</v>
+        <v>0.0104257167680278</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="F28">
-        <v>0.8200000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2335</v>
+        <v>2278</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1992,37 +1992,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.009817671809256662</v>
+        <v>0.007867661892273553</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2118</v>
+        <v>4918</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.6067415730337079</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2042,37 +2042,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.00914235959947758</v>
+        <v>0.007591979754720654</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E30">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F30">
-        <v>0.64</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2276</v>
+        <v>5098</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.606694560669456</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L30">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M30">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2092,565 +2092,569 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007210979297511049</v>
+        <v>0.006045105789351314</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F31">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4268</v>
+        <v>4275</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L31">
+        <v>56</v>
+      </c>
+      <c r="M31">
+        <v>56</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K31">
-        <v>0.5830508474576271</v>
-      </c>
-      <c r="L31">
-        <v>172</v>
-      </c>
-      <c r="M31">
-        <v>172</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
+      <c r="K33">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L34">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>0.007009345794392523</v>
-      </c>
-      <c r="C32">
-        <v>36</v>
-      </c>
-      <c r="D32">
-        <v>65</v>
-      </c>
-      <c r="E32">
-        <v>0.45</v>
-      </c>
-      <c r="F32">
-        <v>0.55</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5100</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L32">
-        <v>40</v>
-      </c>
-      <c r="M32">
-        <v>40</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.006445115810674723</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>63</v>
-      </c>
-      <c r="E33">
-        <v>0.49</v>
-      </c>
-      <c r="F33">
-        <v>0.51</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>4933</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K33">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L33">
-        <v>37</v>
-      </c>
-      <c r="M33">
-        <v>37</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="K35">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L35">
+        <v>46</v>
+      </c>
+      <c r="M35">
+        <v>46</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>0.95</v>
+      </c>
+      <c r="O37">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L39">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5638297872340425</v>
-      </c>
-      <c r="L34">
-        <v>53</v>
-      </c>
-      <c r="M34">
-        <v>53</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L35">
-        <v>24</v>
-      </c>
-      <c r="M35">
-        <v>24</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>0.328125</v>
+      </c>
+      <c r="L41">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="L42">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="L37">
+      <c r="M42">
         <v>22</v>
       </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.34375</v>
-      </c>
-      <c r="L38">
-        <v>22</v>
-      </c>
-      <c r="M38">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L40">
-        <v>26</v>
-      </c>
-      <c r="M40">
-        <v>26</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K41">
-        <v>0.3275862068965517</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>0.95</v>
-      </c>
-      <c r="O41">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
+      <c r="K43">
+        <v>0.03260869565217391</v>
+      </c>
+      <c r="L43">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
+      <c r="M43">
+        <v>43</v>
+      </c>
+      <c r="N43">
+        <v>0.91</v>
+      </c>
+      <c r="O43">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K42">
-        <v>0.0342809364548495</v>
-      </c>
-      <c r="L42">
-        <v>41</v>
-      </c>
-      <c r="M42">
-        <v>45</v>
-      </c>
-      <c r="N42">
-        <v>0.91</v>
-      </c>
-      <c r="O42">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.01502629601803156</v>
-      </c>
-      <c r="L43">
-        <v>40</v>
-      </c>
-      <c r="M43">
-        <v>51</v>
-      </c>
-      <c r="N43">
-        <v>0.78</v>
-      </c>
-      <c r="O43">
-        <v>0.22</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K44">
-        <v>0.01380753138075314</v>
+        <v>0.01803921568627451</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M44">
         <v>37</v>
       </c>
       <c r="N44">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="O44">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="L45">
+        <v>35</v>
+      </c>
+      <c r="M45">
+        <v>48</v>
+      </c>
+      <c r="N45">
+        <v>0.73</v>
+      </c>
+      <c r="O45">
+        <v>0.27</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46">
+        <v>0.01276771004942339</v>
+      </c>
+      <c r="L46">
+        <v>31</v>
+      </c>
+      <c r="M46">
+        <v>48</v>
+      </c>
+      <c r="N46">
+        <v>0.65</v>
+      </c>
+      <c r="O46">
+        <v>0.35</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K45">
-        <v>0.01350502512562814</v>
-      </c>
-      <c r="L45">
-        <v>43</v>
-      </c>
-      <c r="M45">
-        <v>60</v>
-      </c>
-      <c r="N45">
-        <v>0.72</v>
-      </c>
-      <c r="O45">
-        <v>0.28</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
+      <c r="K47">
+        <v>0.009619406106231703</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>0.88</v>
+      </c>
+      <c r="O47">
+        <v>0.12</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K46">
-        <v>0.01029230135858378</v>
-      </c>
-      <c r="L46">
-        <v>25</v>
-      </c>
-      <c r="M46">
-        <v>41</v>
-      </c>
-      <c r="N46">
-        <v>0.61</v>
-      </c>
-      <c r="O46">
-        <v>0.39</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47">
-        <v>0.006748894577612288</v>
-      </c>
-      <c r="L47">
+      <c r="K48">
+        <v>0.009096612296110414</v>
+      </c>
+      <c r="L48">
         <v>29</v>
       </c>
-      <c r="M47">
-        <v>60</v>
-      </c>
-      <c r="N47">
-        <v>0.48</v>
-      </c>
-      <c r="O47">
-        <v>0.52</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48">
-        <v>0.006244963738920225</v>
-      </c>
-      <c r="L48">
-        <v>31</v>
-      </c>
       <c r="M48">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N48">
-        <v>0.49</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O48">
-        <v>0.51</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4933</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K49">
-        <v>0.00565412361084032</v>
+        <v>0.007867661892273553</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N49">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O49">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>5100</v>
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>0.006276150627615063</v>
+      </c>
+      <c r="L50">
+        <v>27</v>
+      </c>
+      <c r="M50">
+        <v>53</v>
+      </c>
+      <c r="N50">
+        <v>0.51</v>
+      </c>
+      <c r="O50">
+        <v>0.49</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51">
+        <v>0.005462348809988295</v>
+      </c>
+      <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <v>67</v>
+      </c>
+      <c r="N51">
+        <v>0.42</v>
+      </c>
+      <c r="O51">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5098</v>
       </c>
     </row>
   </sheetData>
